--- a/src/ACAT/assessment_results/COMP-431_FA24_01_outcomes.xlsx
+++ b/src/ACAT/assessment_results/COMP-431_FA24_01_outcomes.xlsx
@@ -501,10 +501,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Student_26</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -547,10 +545,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Student_27</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>5</v>
@@ -593,10 +589,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Student_28</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -639,10 +633,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Student_29</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -685,10 +677,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Student_30</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
